--- a/AGORA-eval/agora_all.xlsx
+++ b/AGORA-eval/agora_all.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="count_invariantType" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="file_groups" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name=".binary.twoString.StdString$SubString" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name=".unary.string.IsUrl" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name=".binary.twoScalar.IntGreaterThan" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name=".unary.string.FixedLengthString" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name=".binary.twoScalar.IntEqual" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name=".unary.scalar.OneOfScalar" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name=".unary.string.OneOfString" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name=".binary.twoString.StringEqual" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name=".binary.twoScalar.IntGreaterEqual" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name=".unary.scalar.LowerBound" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name=".unary.string.IsNumeric" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name=".binary.twoScalar.IntLessThan" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name=".binary.twoScalar.IntLessEqual" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name=".unary.string.dates.IsTimestampYYYYMMHHThhmmssmm" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name=".unary.stringsequence.SequenceFixedLengthString" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name=".binary.sequenceString.MemberString" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name=".unary.stringsequence.OneOfStringSequence" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name=".unary.string.dates.IsDateYYYYMMDD" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name=".unary.sequence.OneOfSequence" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name=".unary.stringsequence.EltOneOfString" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name=".binary.twoSequence.SuperSet" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name=".unary.scalar.OneOfFloat" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name=".unary.scalar.LowerBoundFloat" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name=".binary.twoScalar.FloatLessThan" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name=".binary.sequenceScalar.SeqIntEqual" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name=".binary.twoScalar.FloatGreaterThan" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name=".unary.stringsequence.SequenceStringElementsAreUrl" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="count_invariantType" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="file_groups" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoString.StdString$SubString" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.string.IsUrl" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.IntGreaterThan" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.string.FixedLengthString" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.IntEqual" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.scalar.OneOfScalar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.string.OneOfString" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoString.StringEqual" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.IntGreaterEqual" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.scalar.LowerBound" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.string.IsNumeric" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.IntLessThan" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.IntLessEqual" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.string.dates.IsTimestampYYYYMMHHThhmmssmm" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.stringsequence.SequenceFixedLengthString" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.sequenceString.MemberString" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.stringsequence.OneOfStringSequence" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.string.dates.IsDateYYYYMMDD" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.sequence.OneOfSequence" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.stringsequence.EltOneOfString" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoSequence.SuperSet" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.scalar.OneOfFloat" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.scalar.LowerBoundFloat" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.FloatLessThan" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.sequenceScalar.SeqIntEqual" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".binary.twoScalar.FloatGreaterThan" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=".unary.stringsequence.SequenceStringElementsAreUrl" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8104,7 +8104,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9169,7 +9169,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9179,7 +9179,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9189,7 +9189,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9199,7 +9199,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9209,7 +9209,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9219,7 +9219,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9229,7 +9229,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9239,7 +9239,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9249,7 +9249,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -9259,7 +9259,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9445,7 +9445,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9484,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10504,7 +10504,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11197,7 +11197,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12601,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12874,7 +12874,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12952,7 +12952,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13420,7 +13420,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13576,7 +13576,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13810,7 +13810,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14161,7 +14161,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14395,7 +14395,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14434,7 +14434,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14668,7 +14668,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14707,7 +14707,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -14980,7 +14980,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15409,7 +15409,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15448,7 +15448,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15487,7 +15487,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15526,7 +15526,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15604,7 +15604,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16228,7 +16228,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16267,7 +16267,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16735,7 +16735,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16774,7 +16774,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17125,7 +17125,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17320,7 +17320,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17398,7 +17398,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17437,7 +17437,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17476,7 +17476,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17554,7 +17554,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17710,7 +17710,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17788,7 +17788,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17827,7 +17827,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17944,7 +17944,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18022,7 +18022,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18751,7 +18751,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18790,7 +18790,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18868,7 +18868,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19024,7 +19024,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19219,7 +19219,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19258,7 +19258,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19375,7 +19375,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19492,7 +19492,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19570,7 +19570,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19609,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19648,7 +19648,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19687,7 +19687,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19726,7 +19726,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19804,7 +19804,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19843,7 +19843,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19882,7 +19882,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19921,7 +19921,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19960,7 +19960,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -19999,7 +19999,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20038,7 +20038,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20116,7 +20116,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20194,7 +20194,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20272,7 +20272,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20311,7 +20311,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20350,7 +20350,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20428,7 +20428,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20467,7 +20467,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20584,7 +20584,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20623,7 +20623,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20662,7 +20662,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20740,7 +20740,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20935,7 +20935,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -20974,7 +20974,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21013,7 +21013,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21130,7 +21130,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21247,7 +21247,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21286,7 +21286,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21364,7 +21364,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21442,7 +21442,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21598,7 +21598,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21637,7 +21637,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21754,7 +21754,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21832,7 +21832,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21910,7 +21910,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21949,7 +21949,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -21988,7 +21988,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22027,7 +22027,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22066,7 +22066,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22105,7 +22105,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22144,7 +22144,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22183,7 +22183,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22300,7 +22300,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22339,7 +22339,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22378,7 +22378,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22612,7 +22612,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22651,7 +22651,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22807,7 +22807,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22846,7 +22846,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -22963,7 +22963,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23002,7 +23002,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23197,7 +23197,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23236,7 +23236,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23275,7 +23275,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23314,7 +23314,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23392,7 +23392,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23470,7 +23470,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23509,7 +23509,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23548,7 +23548,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23587,7 +23587,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23743,7 +23743,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23782,7 +23782,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23860,7 +23860,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23899,7 +23899,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23938,7 +23938,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24016,7 +24016,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24055,7 +24055,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24094,7 +24094,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24172,7 +24172,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24211,7 +24211,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24394,7 +24394,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24433,7 +24433,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24472,7 +24472,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24511,7 +24511,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24550,7 +24550,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24589,7 +24589,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24628,7 +24628,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24667,7 +24667,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24706,7 +24706,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24745,7 +24745,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24784,7 +24784,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24823,7 +24823,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24862,7 +24862,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24901,7 +24901,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24940,7 +24940,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25057,7 +25057,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25096,7 +25096,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25135,7 +25135,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25174,7 +25174,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25252,7 +25252,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25291,7 +25291,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25330,7 +25330,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25369,7 +25369,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25408,7 +25408,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25447,7 +25447,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25486,7 +25486,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25525,7 +25525,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25564,7 +25564,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25603,7 +25603,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25642,7 +25642,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25681,7 +25681,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25759,7 +25759,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25798,7 +25798,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25837,7 +25837,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25876,7 +25876,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25915,7 +25915,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25954,7 +25954,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -25993,7 +25993,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26032,7 +26032,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26071,7 +26071,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26110,7 +26110,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26149,7 +26149,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26188,7 +26188,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26227,7 +26227,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26266,7 +26266,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26344,7 +26344,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26383,7 +26383,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26539,7 +26539,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26578,7 +26578,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26617,7 +26617,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26656,7 +26656,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26695,7 +26695,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26734,7 +26734,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26851,7 +26851,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26890,7 +26890,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -26968,7 +26968,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27007,7 +27007,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27046,7 +27046,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27085,7 +27085,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27124,7 +27124,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27202,7 +27202,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27241,7 +27241,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27280,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27319,7 +27319,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27358,7 +27358,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27397,7 +27397,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27436,7 +27436,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27514,7 +27514,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27553,7 +27553,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27592,7 +27592,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27631,7 +27631,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27670,7 +27670,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27709,7 +27709,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27748,7 +27748,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27865,7 +27865,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27904,7 +27904,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27943,7 +27943,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28060,7 +28060,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28099,7 +28099,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28138,7 +28138,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28177,7 +28177,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28216,7 +28216,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28255,7 +28255,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28294,7 +28294,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28372,7 +28372,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28411,7 +28411,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28489,7 +28489,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28528,7 +28528,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28567,7 +28567,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28606,7 +28606,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28645,7 +28645,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28684,7 +28684,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28789,7 +28789,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28828,7 +28828,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28867,7 +28867,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28906,7 +28906,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28945,7 +28945,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -28984,7 +28984,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29023,7 +29023,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29062,7 +29062,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29101,7 +29101,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29140,7 +29140,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29179,7 +29179,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29218,7 +29218,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29257,7 +29257,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29296,7 +29296,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29335,7 +29335,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29374,7 +29374,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29452,7 +29452,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29491,7 +29491,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29569,7 +29569,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29608,7 +29608,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29647,7 +29647,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29686,7 +29686,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29725,7 +29725,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29764,7 +29764,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29803,7 +29803,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29842,7 +29842,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29881,7 +29881,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29920,7 +29920,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29959,7 +29959,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -29998,7 +29998,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30037,7 +30037,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30076,7 +30076,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30154,7 +30154,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30193,7 +30193,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30232,7 +30232,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30271,7 +30271,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30310,7 +30310,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30349,7 +30349,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30388,7 +30388,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30466,7 +30466,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30544,7 +30544,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30583,7 +30583,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30622,7 +30622,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30700,7 +30700,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30739,7 +30739,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30778,7 +30778,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30817,7 +30817,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30856,7 +30856,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30895,7 +30895,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -30973,7 +30973,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31012,7 +31012,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31051,7 +31051,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31090,7 +31090,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31168,7 +31168,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31207,7 +31207,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31246,7 +31246,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31285,7 +31285,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31324,7 +31324,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31363,7 +31363,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31402,7 +31402,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31441,7 +31441,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31480,7 +31480,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31519,7 +31519,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31558,7 +31558,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31597,7 +31597,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31636,7 +31636,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31714,7 +31714,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31753,7 +31753,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31792,7 +31792,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31831,7 +31831,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31870,7 +31870,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31909,7 +31909,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31948,7 +31948,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -31987,7 +31987,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32026,7 +32026,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32065,7 +32065,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32104,7 +32104,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32143,7 +32143,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32182,7 +32182,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32221,7 +32221,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32260,7 +32260,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32299,7 +32299,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32338,7 +32338,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32377,7 +32377,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32416,7 +32416,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32455,7 +32455,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32494,7 +32494,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32572,7 +32572,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32611,7 +32611,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32650,7 +32650,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32689,7 +32689,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32728,7 +32728,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32767,7 +32767,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32872,7 +32872,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32911,7 +32911,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32950,7 +32950,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -32989,7 +32989,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33028,7 +33028,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33067,7 +33067,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33106,7 +33106,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33184,7 +33184,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33223,7 +33223,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33262,7 +33262,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33301,7 +33301,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33340,7 +33340,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33379,7 +33379,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33418,7 +33418,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33457,7 +33457,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33496,7 +33496,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33535,7 +33535,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33574,7 +33574,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33613,7 +33613,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33652,7 +33652,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33691,7 +33691,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33730,7 +33730,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33769,7 +33769,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33808,7 +33808,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33847,7 +33847,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33886,7 +33886,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33925,7 +33925,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -33964,7 +33964,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34003,7 +34003,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34042,7 +34042,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34081,7 +34081,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34120,7 +34120,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34159,7 +34159,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34198,7 +34198,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34237,7 +34237,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34276,7 +34276,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34315,7 +34315,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34354,7 +34354,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34393,7 +34393,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34432,7 +34432,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34471,7 +34471,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34510,7 +34510,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34549,7 +34549,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34627,7 +34627,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34666,7 +34666,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34705,7 +34705,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34744,7 +34744,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34783,7 +34783,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34822,7 +34822,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34861,7 +34861,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34900,7 +34900,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34939,7 +34939,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -34978,7 +34978,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35017,7 +35017,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35056,7 +35056,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35095,7 +35095,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35134,7 +35134,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35173,7 +35173,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35212,7 +35212,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35251,7 +35251,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35290,7 +35290,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35329,7 +35329,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35368,7 +35368,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35407,7 +35407,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35446,7 +35446,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35485,7 +35485,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35524,7 +35524,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35563,7 +35563,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35602,7 +35602,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35641,7 +35641,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35680,7 +35680,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35719,7 +35719,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35758,7 +35758,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35797,7 +35797,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35836,7 +35836,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35914,7 +35914,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35953,7 +35953,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -35992,7 +35992,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36031,7 +36031,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36070,7 +36070,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36109,7 +36109,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36148,7 +36148,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36226,7 +36226,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36331,7 +36331,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36370,7 +36370,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36409,7 +36409,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36448,7 +36448,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36487,7 +36487,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36526,7 +36526,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36565,7 +36565,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36604,7 +36604,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36643,7 +36643,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36682,7 +36682,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36721,7 +36721,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36760,7 +36760,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36799,7 +36799,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36838,7 +36838,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36877,7 +36877,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36916,7 +36916,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36955,7 +36955,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -36994,7 +36994,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37033,7 +37033,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37072,7 +37072,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37111,7 +37111,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37150,7 +37150,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37228,7 +37228,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37267,7 +37267,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37306,7 +37306,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37345,7 +37345,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37384,7 +37384,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37423,7 +37423,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37462,7 +37462,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37501,7 +37501,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37540,7 +37540,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37579,7 +37579,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37618,7 +37618,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37657,7 +37657,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37696,7 +37696,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37735,7 +37735,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37774,7 +37774,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37813,7 +37813,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37852,7 +37852,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37891,7 +37891,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Yelp\getBusinesses\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37930,7 +37930,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -37969,7 +37969,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38008,7 +38008,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38047,7 +38047,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38086,7 +38086,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38125,7 +38125,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38164,7 +38164,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38203,7 +38203,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38242,7 +38242,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38281,7 +38281,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38320,7 +38320,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38359,7 +38359,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38398,7 +38398,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38437,7 +38437,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38476,7 +38476,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38554,7 +38554,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38593,7 +38593,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38632,7 +38632,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38671,7 +38671,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38710,7 +38710,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38749,7 +38749,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38788,7 +38788,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38827,7 +38827,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38866,7 +38866,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -38905,7 +38905,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39010,7 +39010,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39049,7 +39049,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39088,7 +39088,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39127,7 +39127,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39166,7 +39166,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39205,7 +39205,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39244,7 +39244,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39283,7 +39283,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39322,7 +39322,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39361,7 +39361,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39400,7 +39400,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39439,7 +39439,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\AmadeusHotel\getMultiHotelOffers\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39478,7 +39478,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39517,7 +39517,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39556,7 +39556,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39595,7 +39595,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39634,7 +39634,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39673,7 +39673,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39712,7 +39712,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\createOrganizationRepository\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39751,7 +39751,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39790,7 +39790,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39829,7 +39829,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\GitHub\getOrganizationRepositories\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39868,7 +39868,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39907,7 +39907,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39946,7 +39946,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -39985,7 +39985,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40024,7 +40024,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40063,7 +40063,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40102,7 +40102,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40141,7 +40141,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40180,7 +40180,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40219,7 +40219,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Marvel\getComicById\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40258,7 +40258,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40297,7 +40297,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40336,7 +40336,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\byIdOrTitle\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40375,7 +40375,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\OMDb\bySearch\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40414,7 +40414,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\createPlaylist\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40492,7 +40492,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40531,7 +40531,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40570,7 +40570,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40609,7 +40609,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getAlbumTracks\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40648,7 +40648,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40687,7 +40687,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40726,7 +40726,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40765,7 +40765,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\Spotify\getArtistAlbums\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40804,7 +40804,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40843,7 +40843,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40882,7 +40882,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40921,7 +40921,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40960,7 +40960,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -40999,7 +40999,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -41038,7 +41038,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -41077,7 +41077,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -41116,7 +41116,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -41194,7 +41194,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
@@ -41233,7 +41233,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>c:\Users\minhh\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
+          <t>c:\Users\\OneDrive\Documents\ReplicationPackage\invariantsClassified\YouTube\listVideos\50\invariants_50_modified_tab_delimiter.xlsx</t>
         </is>
       </c>
     </row>
